--- a/Reports/201920732/2023-1/201920732_2023-1.xlsx
+++ b/Reports/201920732/2023-1/201920732_2023-1.xlsx
@@ -842,7 +842,7 @@
     <t>BDM-1204T03CE01A03</t>
   </si>
   <si>
-    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58306_PS2023-1_FC07/03/2022_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03</t>
+    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58306_PS2023-1_FC31/05/2023_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03</t>
   </si>
   <si>
     <t>57314</t>
@@ -899,7 +899,7 @@
     <t>RDM-1304T03CE01A03</t>
   </si>
   <si>
-    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M57314_PS2023-1_FC07/03/2022_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02</t>
+    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M57314_PS2023-1_FC31/05/2023_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02</t>
   </si>
   <si>
     <t>58308</t>
@@ -950,7 +950,7 @@
     <t>RSD-1205T02CE01A02</t>
   </si>
   <si>
-    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58308_PS2023-1_FC07/03/2022_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RSD-1205T01CE01A02|RSD-1205T01CE01A03|RSD-1205T02CE01A03|RSD-1205T02CE01A04|RSD-1205T01CE01A01|RSD-1205T02CE01A01|RSD-1205T02CE01A02|RSD-1205T03CE01A01|RSD-1205T03CE01A04|RSD-1205T04CE01A03|RSD-1205T03CE01A02|RSD-1205T03CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|RSD-1205T04CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02</t>
+    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58308_PS2023-1_FC31/05/2023_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RSD-1205T01CE01A02|RSD-1205T01CE01A03|RSD-1205T02CE01A03|RSD-1205T02CE01A04|RSD-1205T01CE01A01|RSD-1205T02CE01A01|RSD-1205T02CE01A02|RSD-1205T03CE01A01|RSD-1205T03CE01A04|RSD-1205T04CE01A03|RSD-1205T03CE01A02|RSD-1205T03CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|RSD-1205T04CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02</t>
   </si>
   <si>
     <t>58304</t>
@@ -992,7 +992,7 @@
     <t>ACA-0910T02CE01A04</t>
   </si>
   <si>
-    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58304_PS2023-1_FC07/03/2022_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RSD-1205T01CE01A02|RSD-1205T01CE01A03|RSD-1205T02CE01A03|RSD-1205T02CE01A04|RSD-1205T01CE01A01|RSD-1205T02CE01A01|RSD-1205T02CE01A02|RSD-1205T03CE01A01|RSD-1205T03CE01A04|RSD-1205T04CE01A03|RSD-1205T03CE01A02|RSD-1205T03CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|RSD-1205T04CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|ACA-0910T01CE01A03|ACA-0910T01CE01A04|ACA-0910T01CE01A01|ACA-0910T01CE01A02|ACA-0910T02CE01A02|ACA-0910T02CE01A03|ACA-0910T02CE01A01|ACA-0910T02CE01A04|ACA-0910T03CE01A02|ACA-0910T03CE01A01|ACA-0910T03CE01A03</t>
+    <t>E05_R5.1c_V1.0_IETESE_PETES5061300046_UEZACC760516EF7_ED201920732_M58304_PS2023-1_FC31/05/2023_ABDM-1204T01CE01A02|BDM-1204T01CE01A03|BDM-1204T01CE01A01|BDM-1204T02CE01A02|BDM-1204T02CE01A03|BDM-1204T02CE01A01|BDM-1204T03CE01A01|BDM-1204T03CE01A02|BDM-1204T03CE01A03|RDM-1304T01CE01A02|RDM-1304T01CE01A03|RDM-1304T02CE01A01|RDM-1304T03CE01A01|RDM-1304T03CE01A04|RDM-1304T01CE01A01|RDM-1304T01CE01A04|RDM-1304T02CE01A02|RDM-1304T03CE01A02|RDM-1304T03CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A05|RDM-1304T04CE01A01|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RDM-1304T04CE01A01|RDM-1304T04CE01A03|RDM-1304T04CE01A04|RDM-1304T04CE01A01|RDM-1304T04CE01A02|RDM-1304T04CE01A02|RSD-1205T01CE01A02|RSD-1205T01CE01A03|RSD-1205T02CE01A03|RSD-1205T02CE01A04|RSD-1205T01CE01A01|RSD-1205T02CE01A01|RSD-1205T02CE01A02|RSD-1205T03CE01A01|RSD-1205T03CE01A04|RSD-1205T04CE01A03|RSD-1205T03CE01A02|RSD-1205T03CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|RSD-1205T04CE01A03|RSD-1205T04CE01A01|RSD-1205T04CE01A02|ACA-0910T01CE01A03|ACA-0910T01CE01A04|ACA-0910T01CE01A01|ACA-0910T01CE01A02|ACA-0910T02CE01A02|ACA-0910T02CE01A03|ACA-0910T02CE01A01|ACA-0910T02CE01A04|ACA-0910T03CE01A02|ACA-0910T03CE01A01|ACA-0910T03CE01A03</t>
   </si>
 </sst>
 </file>
